--- a/SIH Project/app/data/user_details.xlsx
+++ b/SIH Project/app/data/user_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Main_Project\SIH_PROJECT\SIH Project\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5CA905-2786-4A77-8B16-54385643805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E506605-BF92-49B3-821B-FEE6117FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29C81712-14D1-4D76-8D16-5ED9F66505B7}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{29C81712-14D1-4D76-8D16-5ED9F66505B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>mridula_209</t>
+  </si>
+  <si>
+    <t>nantha_krishnan_r</t>
+  </si>
+  <si>
+    <t>mohammed_riyan_h</t>
   </si>
 </sst>
 </file>
@@ -397,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A468E-7F07-4DBF-BBA7-1F0C6C67CC20}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -421,11 +427,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>

--- a/SIH Project/app/data/user_details.xlsx
+++ b/SIH Project/app/data/user_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Main_Project\SIH_PROJECT\SIH Project\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E506605-BF92-49B3-821B-FEE6117FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BCF75F-89F1-437D-BEA1-A23288A79839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{29C81712-14D1-4D76-8D16-5ED9F66505B7}"/>
+    <workbookView xWindow="8640" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{29C81712-14D1-4D76-8D16-5ED9F66505B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>mohammed_riyan_h</t>
+  </si>
+  <si>
+    <t>lalithremo</t>
+  </si>
+  <si>
+    <t>ggggggg12</t>
+  </si>
+  <si>
+    <t>mohann007</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A468E-7F07-4DBF-BBA7-1F0C6C67CC20}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +460,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
